--- a/Config/Excel/GameHot/Datas/__tables__.xlsx
+++ b/Config/Excel/GameHot/Datas/__tables__.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_projs\unity\GameFramework-Pro\Excel\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_projs\unity\GameFramework-Pro\Config\Excel\GameHot\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1A1E64-1E04-49F3-9D6E-0FBFA7203C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89B7A8C-A14F-4584-93E3-D3177824D3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="3150" windowWidth="21615" windowHeight="12015" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2025" yWindow="2400" windowWidth="21615" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>##var</t>
   </si>
@@ -158,14 +157,6 @@
   </si>
   <si>
     <t>UISound</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>L10N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>l10n/texts.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -523,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -807,143 +798,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E72D6AA-5711-4E56-9126-FF8DCA8A7F06}">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.875" customWidth="1"/>
-    <col min="5" max="5" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="69.75" customWidth="1"/>
-    <col min="7" max="7" width="32.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="str">
-        <f>"Localization.Tb"&amp;C4</f>
-        <v>Localization.TbL10N</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Config/Excel/GameHot/Datas/__tables__.xlsx
+++ b/Config/Excel/GameHot/Datas/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_projs\unity\GameFramework-Pro\Config\Excel\GameHot\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edy/projs/GameFramework-Pro/Config/Excel/GameHot/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89B7A8C-A14F-4584-93E3-D3177824D3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8B2156-3AA9-3947-B8E8-1FF17D3FA524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="2400" windowWidth="21615" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2020" yWindow="2400" windowWidth="21620" windowHeight="12020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -157,6 +156,14 @@
   </si>
   <si>
     <t>UISound</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c,e</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -164,7 +171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +198,14 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -226,7 +241,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -234,6 +249,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -514,20 +532,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="32.375" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
-    <col min="6" max="9" width="18" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="6" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -594,7 +614,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -617,7 +637,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="B4" s="2" t="str">
         <f>"StarForce.Tb"&amp;C4</f>
         <v>StarForce.TbAircraft</v>
@@ -632,8 +652,11 @@
         <f>C4&amp;".xlsx"</f>
         <v>Aircraft.xlsx</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H4" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="B5" s="2" t="str">
         <f t="shared" ref="B5:B13" si="0">"StarForce.Tb"&amp;C5</f>
         <v>StarForce.TbArmor</v>
@@ -648,8 +671,11 @@
         <f t="shared" ref="E5:E14" si="1">C5&amp;".xlsx"</f>
         <v>Armor.xlsx</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H5" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="B6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>StarForce.TbAsteroid</v>
@@ -664,8 +690,11 @@
         <f t="shared" si="1"/>
         <v>Asteroid.xlsx</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>StarForce.TbEntity</v>
@@ -680,8 +709,11 @@
         <f t="shared" si="1"/>
         <v>Entity.xlsx</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H7" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="B8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>StarForce.TbMusic</v>
@@ -696,8 +728,11 @@
         <f t="shared" si="1"/>
         <v>Music.xlsx</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="B9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>StarForce.TbScene</v>
@@ -712,8 +747,11 @@
         <f t="shared" si="1"/>
         <v>Scene.xlsx</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>StarForce.TbSound</v>
@@ -728,8 +766,11 @@
         <f t="shared" si="1"/>
         <v>Sound.xlsx</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H10" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>StarForce.TbThruster</v>
@@ -744,8 +785,11 @@
         <f t="shared" si="1"/>
         <v>Thruster.xlsx</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H11" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>StarForce.TbUIForm</v>
@@ -760,8 +804,11 @@
         <f t="shared" si="1"/>
         <v>UIForm.xlsx</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H12" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>StarForce.TbUISound</v>
@@ -776,8 +823,11 @@
         <f t="shared" si="1"/>
         <v>UISound.xlsx</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H13" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="B14" s="2" t="str">
         <f>"StarForce.Tb"&amp;C14</f>
         <v>StarForce.TbWeapon</v>
@@ -791,6 +841,9 @@
       <c r="E14" t="str">
         <f t="shared" si="1"/>
         <v>Weapon.xlsx</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
